--- a/Ageipelago El Cid.xlsx
+++ b/Ageipelago El Cid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/BB6DD295C338E39F/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A0A14B8-1491-4145-A422-5832A82E26A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{8A0A14B8-1491-4145-A422-5832A82E26A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C5E52ED-70A7-4576-BD36-6B43E5230A46}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B8266A09-EF6B-4D9A-952F-8D97365221FC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B8266A09-EF6B-4D9A-952F-8D97365221FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Scenario</t>
   </si>
@@ -253,52 +253,6 @@
   </si>
   <si>
     <t>Might wanna reduce the Relic Objectives, since there's 4 of them in one Place. On the other Hand, some easy checks don't hurt either.</t>
-  </si>
-  <si>
-    <r>
-      <t>Houses (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>King Sancho</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)
-3 Conquistadors
-3 Pikemen, 3 Conquistadors
-6 Monks, 1 Monestary
-9 Conquistadors, 8 Longswordsmen, 7 Knights, 5 Pikemen (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>King Sancho</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
   </si>
   <si>
     <t>El Cid Campeador
@@ -556,33 +510,6 @@
 </t>
   </si>
   <si>
-    <t>Misc. Buildings
-4 Villagers
-800 Food, 950 Wood, 1200 Gold</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF06EEFA"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Motamid's</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Troops usually take some losses before the Player gets the Remains.</t>
-    </r>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Reach </t>
     </r>
@@ -780,6 +707,1038 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Convert the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Black Guard Navy's Mosque</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Kill the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Black Guard Navy's Transport Ships</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bring </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>King Alfonso</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to his Camp in the West
+Destroy the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>6 Black Guard Navy's Docks</t>
+    </r>
+  </si>
+  <si>
+    <t>El Cid Campeador
+300 Food
+300 Gold
+400 Stone</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reach </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Valencia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Defend </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Valencia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> until </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>the Wonder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is finished</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reach </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Denia</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reach the Monestary near </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Valencia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Reach the Fishermen in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lèrida</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Destroy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1/2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Castle/s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Defeat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Denia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Defeat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lèrida</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Defeat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Berenguer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Defeat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Berenguer's Assault</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Denia</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3 Camel Riders
+4 Knights
+2 Missionaries, 1 Monestary
+650 Wood (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Valencia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Defeat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Yusuf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Defeat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Black Guard Navy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Defeat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF06EEFA"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Black Guard Army</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Collect 1 Relic
+Destroy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF06EEFA"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3/4/5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Castle/s
+Destroy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tower of Desolation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Destroy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tower of Agony</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Destroy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tower of Despair</t>
+    </r>
+  </si>
+  <si>
+    <t>Army Player 2</t>
+  </si>
+  <si>
+    <t>Army Player 3</t>
+  </si>
+  <si>
+    <t>Army Player 4</t>
+  </si>
+  <si>
+    <t>Army Player 5</t>
+  </si>
+  <si>
+    <t>Army Player 6</t>
+  </si>
+  <si>
+    <t>Logic</t>
+  </si>
+  <si>
+    <t>5 Knights
+3 Light Cavalry
+6 Long Swordsmen</t>
+  </si>
+  <si>
+    <t>Build a Town Center</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bringing El Cid Campeador to the Town and the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Servs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, as well as winning the Tournament and bringing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>King Alfonso</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to the Tournament grounds requires recieving El Cid Campeador first.
+All other Objectives require either </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>King Sancho's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Units (Villagers), the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Servs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Villagers) or the Monastery with Monks.
+The Relics require either the Monastery with Monks or Castle Age, Town Center, Monastery and Monks to be unlocked.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Houses (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>King Sancho</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)
+3 Conquistadors
+3 Pikemen, 3 Conquistadors
+6 Monks, 1 Monestary
+9 Conquistadors, 8 Longswordsmen, 7 Knights, 5 Pikemen (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>King Sancho</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)
+150 Food, 200 Gold, 100 Stone
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army:
+3 Light Cavalry
+8 Knights
+4 Conquistdores
+4 Long Swordsmen
+10 Pikemen
+10 Archers
+4 Mangonels
+1 Battering Ram
+1 Missionary
+Later:
+5 Knights
+10 Long Swordsmen
+2 Missionaries
+Endless Scorpions
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army identical to Moderate, but does not train ANY troops
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army is identical to Moderate
+Later:
+12 Long Swordsmen
+4 Missionaries</t>
+    </r>
+  </si>
+  <si>
+    <t>Bringing the Relics to the Imam's Island and defeating the Imam requires either the Gaia Transport Ship or Docks and Transport Ships to be unlocked.
+Any Relics past the first one require Docks and Warships to be unlocked.
+Any Relics require the Player to be able to fight both Player 3 and Player 4 and to have Monasteries and Monks unlocked.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Moderate:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8 Camel Riders
+8 Elite Skirmishers
+3 Monks</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Standard:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">5 Camel Riders
+4 Pikemen
+4 Crossbowmen
+0 Elite Skirmishers
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hard:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5 Camel Riders
+8 Pikemen
+10 Crossbowmen
+0 Elite Skirmishers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+7 Knights
+6 Long Swordsmen
+2 Monks
+5 Battering Rams
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+5 Knights
+0 Long Swordsmen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hard:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6 Chevalier 
+(counted as Knights for their max. Number, not retrained)
+10 Knights
+8 Long Swordsmen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gathering Relics requires both Monasteries and Monks to be unlocked, as well as Villagers and Resources.
+Defeating </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Berenguer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and destroying his </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>northern Castle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> requires Villagers and Resources.
+Destroying </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Berenguers Siege Workshop and Southern Castle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and defeating </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>King Alfonso's Army</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and destroying </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>his Castles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and reaching and defeating </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF06EEFA"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Motamid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and destroying </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF06EEFA"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>his Castle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> require Resources and the Misc. Buildings in the South.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Go to </t>
     </r>
     <r>
@@ -798,7 +1757,496 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> for Bavieca</t>
+      <t xml:space="preserve"> for Bavieca
+Reach the Misc. Buildings in the South</t>
+    </r>
+  </si>
+  <si>
+    <t>1 Trebuchet (on Standard),
+Misc. Buildings
+4 Villagers
+800 Food, 950 Wood, 1200 Gold</t>
+  </si>
+  <si>
+    <t>9 Spearmen
+4 Pikemen
+5 Long Swordsmen
+8 Archers
+3 Scorpions
+doesn't train Units</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army:
+6 Pikemen
+11 Long Swordsmen
+4 Men-at-Arms
+10 Archers
+3 Knights
+3 Light Cavalry
+1 Monk
+2 Mangonels
+2 Battering Rams
+Later:
+5 Throwing Axemen
+5 Knights
+14 Long Swordsmen
+5 Crossbowmen
+2 Battering Rams
+2 Monks
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army:
+Identical to Moderate
+Later:
+3 Throwing Axemen
+5 Knights
+4 Long Swordsmen
+5 Crossbowmen
+1 Battering Ram
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army:
+Identical to Moderate
+Later:
+6 Throwing Axemen
+12 Knights
+12 Long Swordsmen
+4 Crossbowmen
+2 Battering Rams
+4 Monks</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF06EEFA"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Motamid's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Troops usually take some losses before the Player gets the Remains.
+When testing Hard Difficulty, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Berenguer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SOMEHOW ran out of Villagers at some point and was only able to continue when tributed Food. Might be due to 'aegis' Cheat, but strange nontheless.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Defeat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Yusuf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Defeat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF06EEFA"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Black Guard Army</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Defeat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Black Guard Navy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Destroy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF06EEFA"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3/4/5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Castle/s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All Objectives except bringing King Alfonso to his Camp require the Player to have optained the Camp.
+Destroying </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the Transports</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> requires Docks and any Warships to be unlocked.
+Defeating the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Black Guard Army</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and destroying </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>their</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Castles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> requires Docks and Transport Ships to be unlocked.
+Converting </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the Mosque</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> requires Monasteries, Monks and Redemption to be unlocked.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Civsanity:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The Civilisation used needs to be able to research Redemption.</t>
+    </r>
+  </si>
+  <si>
+    <t>Starting Army:
+8 Knights
+10 Pikemen
+10 Archers</t>
+  </si>
+  <si>
+    <r>
+      <t>King Alfonso
+7 Villagers, 1 Town Center, Misc. Buildings, 200 Wood, 1 Castle on Standard (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>King Alfonso's Army</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Slow Unlocking of all Monk-Techs
+Starting Troops of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>King Alfonso's Army</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Wood given by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>King Alfonso's Army</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> depends on their Stockpile.
+I considered making the Docks progressive like the Castles, but they seem to minor?
+I have no idea as to what the effect of destroying the Transports is in Vanilla.
+Added Item to gain control of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>King Alfonso's Army's</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Troops that usually die against the Enemies in the initial Battle.</t>
     </r>
   </si>
   <si>
@@ -809,44 +2257,269 @@
 4 Longswordsmen
 275 Food
 200 Gold
-200 Stone</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Convert the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Black Guard Navy's Mosque</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Kill the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Black Guard Navy's Transport Ships</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Defeat </t>
+200 Stone
+Technology: Murder Holes on Standard</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army:
+4 Knights
+6 Camel Riders
+4 Cavalry Archers
+1 Mameluke
+Later:
+5 Knights
+6 Camel Riders
+10 Cavalry Archers
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army: identical to Moderate
+Later:
+2 Knights
+0 Camel Riders
+0 Cavalry Archers
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army:
+Identical to Moderate
+Later:
+Identical to Moderate
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+10 Pikemen
+10 Elite Skirmishers
+6 Heavy Camel Riders
+3 Scorpions
+2 Trebuchets
+4 Galleons
+3 Heavy Demolition Ships
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+5 Pikemen
+6 Heavy Camel Riders
+2 Trebuchets
+3 Heavy Demolition Ships
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Identical to Moderate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army:
+19 Camel Riders
+5 Mamelukes
+8 Camel Archers
+5 Onagers
+Later:
+5 Hussars
+6 Heavy Camel Riders
+10 Heavy Cavalry Archers
+10 Camel Archers
+2 Trebuchets
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army:
+10 Camel Riders
+4 Mamelukes
+6 Camel Archers
+0 Onagers
+Later:
+5 Heavy Camel Riders
+2 Trebuchets
+0 Cavalry Archers
+0 Hussars
+0 Camel Archers
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army:
+Identical to Moderate
+Later: Identical to Moderate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It is possible to defend </t>
     </r>
     <r>
       <rPr>
@@ -854,255 +2527,100 @@
         <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t>Yusuf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Defeat</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF06EEFA"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Black Guard Army</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Defeat Black Guard Navy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Destroy </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF06EEFA"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>3/4/5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Castle/s</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Bring </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>King Alfonso</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to his Camp in the West
-Destroy the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>6 Black Guard Navy's Docks</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>King Alfonso
-7 Villagers, 1 Town Center, Misc. Buildings, 200 Wood (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>King Alfonso's Army</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The Wood given by </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>King Alfonso's Army</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> depends on their Stockpile.
-I considered making the Docks progressive like the Castles, but they seem to minor?
-I have no idea as to what the effect of destroying the Transports is in Vanilla.</t>
-    </r>
-  </si>
-  <si>
-    <t>Slow Unlocking of all Monk-Techs</t>
-  </si>
-  <si>
-    <t>El Cid Campeador
-300 Food
-300 Gold
-400 Stone</t>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Denia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, although both difficult and obviously not intended. The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Assault Army</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is also a different Player than the main </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Berenguer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Assault Army</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Player 6) also cannot be defeated by default, might need adjusting.</t>
+    </r>
   </si>
   <si>
     <t>4 Villagers, 4 Skirmishers, 3 Longswordsmen, Misc. Buildings
 4 Villagers
-1 Town Center, 1 Castle, Misc. Buildings</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Reach </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Valencia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Defend </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Valencia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> until </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>the Wonder</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is finished</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Reach </t>
+1 Town Center, 1 Castle, Misc. Buildings
+2 Bombard Towers on Standard</t>
+  </si>
+  <si>
+    <t>1 Scout Cavalry
+12 Knights
+4 Scorpions
+5 Battering Rams
+2 Trebuchets
+On Moderate, the Scorpions are not part of the initial Assault.
+On Standard the Scorpions, the Scout Cavalry and 7 Knight are not part of the initial Assault.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reaching </t>
     </r>
     <r>
       <rPr>
@@ -1110,32 +2628,28 @@
         <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>Denia</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Reach the Monestary near </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Valencia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Reach the Fishermen in </t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the Monastery, Fishermen and Valencia and defeating </t>
     </r>
     <r>
       <rPr>
@@ -1143,6 +2657,7 @@
         <color rgb="FFFFC000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>Lèrida</t>
     </r>
@@ -1152,9 +2667,30 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Destroy </t>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Denia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is possible from the Beginning.
+All other Objectives require the Player to be able to build a Base via optaining Villagers and Wood or a Town Center. On Standard it is possible tp defeat the </t>
     </r>
     <r>
       <rPr>
@@ -1162,36 +2698,19 @@
         <color rgb="FF7030A0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t>1/2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Castle/s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Defeat </t>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Assault Army</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with just the Units and Buildings of </t>
     </r>
     <r>
       <rPr>
@@ -1199,6 +2718,7 @@
         <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>Denia</t>
     </r>
@@ -1208,136 +2728,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Defeat </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Lèrida</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Defeat </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Berenguer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Defeat </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Berenguer's Assault</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> on </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Denia</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It is possible to defend </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Denia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, although both difficult and obviously not intended. The </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Assault Army</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is also a different Player than the main </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Berenguer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>.</t>
@@ -1345,28 +2735,89 @@
   </si>
   <si>
     <r>
-      <t>3 Camel Riders
-4 Knights
-2 Missionaries, 1 Monestary
-650 Wood (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Valencia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army:
+3 Long Swordsmen
+5 Pikemen
+10 Archers
+2 Scout Cavalry
+5 Knights
+Later:
+10 Paladins
+10 Champions
+6 Archers
+2 Monks
+3 Mangonels
+4 Battering Rams
+3 Bombard Cannons
+1 Trebuchet
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Identical to Moderate
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army:
+Identical to Moderate
+Later:
+3 Trebuchets</t>
     </r>
   </si>
   <si>
@@ -1377,14 +2828,30 @@
 6 Cavaliers
 6 Heavy Camel Riders
 4 Pikemen
+(Moderate/Standard)
+0 Pikemen
+(Hard)
 2 Capped Rams
+(Moderate)
+2 Siege Rams
+(Standard)
+2 Battering Rams
+(Hard)
 2 Fishing Ships
-3 War Galleys
-3 Fire Ships</t>
-  </si>
-  <si>
-    <r>
-      <t>1 Monestary
+3 War Galleys 
+(Moderate/Standard)
+2 War Galleys
+(Hard)
+3 Fire Ships
+(Moderate)
+3 Fast Fire Ships
+(Standard)
+2 Fire Ships
+(Hard)</t>
+  </si>
+  <si>
+    <r>
+      <t>1 Monastery
 El Cid Campeador (</t>
     </r>
     <r>
@@ -1408,7 +2875,8 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Defeat </t>
+      <t xml:space="preserve">For just one Item it tuns out that El Cid wasn't so dead after all.
+Also, </t>
     </r>
     <r>
       <rPr>
@@ -1416,6 +2884,33 @@
         <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hero Towers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Because why not.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Collecting the Relic requires Monks to be unlocked and either Monasteries to be unlocked or the Gaia Monastery.
+Defeating </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>Yusuf</t>
     </r>
@@ -1425,61 +2920,10 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Defeat </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Black Guard Navy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Defeat </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF06EEFA"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Black Guard Army</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Collect 1 Relic
-Destroy </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF06EEFA"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2/</t>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> requires Transport Ships and either Bombard Cannons, Trebuchets or Cannon Galleons.
+The </t>
     </r>
     <r>
       <rPr>
@@ -1487,18 +2931,18 @@
         <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t>3/4/5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Castle/s
-Destroy </t>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hero Towers </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
     </r>
     <r>
       <rPr>
@@ -1506,59 +2950,306 @@
         <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t>Tower of Desolation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Destroy </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tower of Agony</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Destroy </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tower of Despair</t>
-    </r>
-  </si>
-  <si>
-    <t>Unit Numers are for moderate Difficulty.
-For just one Item it tuns out that El Cid wasn't so dead after all.
-Also, Hero Towers. Because why not.</t>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Castles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> require either Cannon Galleons or Transport Ships and Bombard Cannons or Trebuchets.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army:
+6 Heavy Cavalry Archers
+2 Siege Rams
+2 Trebuchets
+Later:
+10 Heavy Cavalry Archers
+2 Elite Genitours
+4 Capped Rams
+4 Trebuchets
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army:
+Identical to Moderate
+Later:
+0 Genitours
+3 Heavy Cavalry Archers
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army:
+Identical to Moderate
+Later:
+Identical to Moderate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army:
+3 Galleons
+Later:
+4 Fast Fire Ships
+8 Galleons
+2 Elite Cannon Galleons
+10 Heavy Cavalry Archers
+2 Elite Genitour
+6 Heavy Camel Riders
+5 Hussars
+4 Capped Rams
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army:
+Identical to Moderate
+Later:
+4 Fast Fire Ships
+3 Galleons
+0 Cannon Galleons
+10 Heavy Cavalry Archers
+0 Genitours
+6 Heavy Camel Riders
+5 Hussars
+4 Capped Rams
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Starting Army:
+Identical to Moderate
+Later:4 Fast Fire Ships
+8 Galleons
+3 Elite Cannon Galleons
+10 Heavy Cavalry Archers
+2 Elite Genitour
+6 Heavy Camel Riders
+5 Hussars
+4 Capped Rams
+3 Monks</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3 Fast Fire Ships
+8 Galleons
+4 Elite Cannon Galleons
+10 Heavy Cavalry Archers
+2 Elite Genitours
+6 Heavy Camel Riders
+2 Hussars
+2 Monks
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0 Fire Ships
+2 Galleons
+1 Elite Cannon Galleon
+10 Heavy Cavalry Archers
+0 Genitours
+6 Heavy Camel Rider
+5 Hussars
+4 Capped Rams
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3 Fast Fire Ships
+8 Galleons
+4 Elite Cannon Galleons
+8 Heavy Cavalry Archers
+2 Elite Genitours
+6 Heavy Camel Riders
+5 Hussars
+4 Capped Rams
+4 Trebuchets
+4 Monks
+</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1677,6 +3368,46 @@
     <font>
       <sz val="14"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2139,10 +3870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2970CF8-14D4-4269-80E6-B32B13DFD70F}">
-  <dimension ref="B2:I9"/>
+  <dimension ref="B2:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2155,10 +3886,17 @@
     <col min="7" max="7" width="30.42578125" customWidth="1"/>
     <col min="8" max="8" width="33.140625" customWidth="1"/>
     <col min="9" max="9" width="33.5703125" customWidth="1"/>
+    <col min="10" max="10" width="43.42578125" customWidth="1"/>
+    <col min="11" max="11" width="40.5703125" customWidth="1"/>
+    <col min="12" max="12" width="43.5703125" customWidth="1"/>
+    <col min="13" max="13" width="47" customWidth="1"/>
+    <col min="14" max="14" width="21.140625" customWidth="1"/>
+    <col min="15" max="16" width="0" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:9" ht="117" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:17" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2183,15 +3921,37 @@
       <c r="I3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="J3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="4" spans="2:9" ht="207" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>16</v>
       </c>
@@ -2202,134 +3962,224 @@
         <v>17</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="J4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="5" spans="2:9" ht="132" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" ht="308.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="F5" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>28</v>
+        <v>57</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="188.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>38</v>
+        <v>63</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="188.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>45</v>
+        <v>68</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="207" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>51</v>
+        <v>75</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
